--- a/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Trimestral.xlsx
+++ b/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Trimestral.xlsx
@@ -3414,34 +3414,34 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>21897</v>
+        <v>22232</v>
       </c>
       <c r="C74">
-        <v>12855</v>
+        <v>13109</v>
       </c>
       <c r="D74">
-        <v>11837</v>
+        <v>12090</v>
       </c>
       <c r="E74">
-        <v>6216</v>
+        <v>6218</v>
       </c>
       <c r="F74">
-        <v>2826</v>
+        <v>2905</v>
       </c>
       <c r="G74">
-        <v>17940</v>
+        <v>17967</v>
       </c>
       <c r="H74">
-        <v>5801</v>
+        <v>5803</v>
       </c>
       <c r="I74">
         <v>2290</v>
       </c>
       <c r="J74">
-        <v>7080</v>
+        <v>7075</v>
       </c>
       <c r="K74">
-        <v>2438</v>
+        <v>2468</v>
       </c>
       <c r="L74">
         <v>4057</v>
@@ -3452,37 +3452,37 @@
         <v>85</v>
       </c>
       <c r="B75">
-        <v>23480</v>
+        <v>23234</v>
       </c>
       <c r="C75">
-        <v>15139</v>
+        <v>14899</v>
       </c>
       <c r="D75">
-        <v>13875</v>
+        <v>13636</v>
       </c>
       <c r="E75">
-        <v>6941</v>
+        <v>6935</v>
       </c>
       <c r="F75">
         <v>1400</v>
       </c>
       <c r="G75">
-        <v>19031</v>
+        <v>19060</v>
       </c>
       <c r="H75">
-        <v>6100</v>
+        <v>6106</v>
       </c>
       <c r="I75">
         <v>2556</v>
       </c>
       <c r="J75">
-        <v>7618</v>
+        <v>7611</v>
       </c>
       <c r="K75">
-        <v>2630</v>
+        <v>2668</v>
       </c>
       <c r="L75">
-        <v>4293</v>
+        <v>4287</v>
       </c>
     </row>
   </sheetData>

--- a/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Trimestral.xlsx
+++ b/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Serie</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3485,6 +3488,44 @@
         <v>4287</v>
       </c>
     </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76">
+        <v>23194</v>
+      </c>
+      <c r="C76">
+        <v>14700</v>
+      </c>
+      <c r="D76">
+        <v>13124</v>
+      </c>
+      <c r="E76">
+        <v>7365</v>
+      </c>
+      <c r="F76">
+        <v>1129</v>
+      </c>
+      <c r="G76">
+        <v>22505</v>
+      </c>
+      <c r="H76">
+        <v>7557</v>
+      </c>
+      <c r="I76">
+        <v>3026</v>
+      </c>
+      <c r="J76">
+        <v>8892</v>
+      </c>
+      <c r="K76">
+        <v>3706</v>
+      </c>
+      <c r="L76">
+        <v>4607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
